--- a/biology/Zoologie/Ariadna/Ariadna.xlsx
+++ b/biology/Zoologie/Ariadna/Ariadna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ariadna est un genre d'araignées aranéomorphes de la famille des Segestriidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ariadna est un genre d'araignées aranéomorphes de la famille des Segestriidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent sur presque toutes les terres sauf aux pôles et dans certains déserts[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent sur presque toutes les terres sauf aux pôles et dans certains déserts.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Paléontologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est connu depuis le Crétacé[2].
-Parmi les araignées aranéomorphes, c'est l'un des genres les plus anciens[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est connu depuis le Crétacé.
+Parmi les araignées aranéomorphes, c'est l'un des genres les plus anciens.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 23.5, 02/01/2023)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 23.5, 02/01/2023) :
 Ariadna abbreviata Marsh, Stevens &amp; Framenau, 2022
 Ariadna abrilae Grismado, 2008
 Ariadna algarvensis Wunderlich, 2011
@@ -725,7 +743,7 @@
 Ariadna weaveri Beatty, 1970
 Ariadna woinarskii Marsh, Stevens, Bradford &amp; Framenau, 2022
 Ariadna yintiaoling Wang &amp; Zhang, 2022
-Selon World Spider Catalog (version 20.5, 2020)[2] :
+Selon World Spider Catalog (version 20.5, 2020) :
 † Ariadna copalis Wunderlich, 2008
 † Ariadna defuncta Wunderlich 2004
 † Ariadna hintzei Wunderlich, 2004
@@ -760,12 +778,14 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Audouin en 1826.
-Macedonia[4] a été placé en synonymie par Simon en 1908[5].
-Pylarus[6] a été placé en synonymie par Rainbow en 1911[7].
-Segestriella[8] a été placé en synonymie par Beatty en 1970[9].
+Macedonia a été placé en synonymie par Simon en 1908.
+Pylarus a été placé en synonymie par Rainbow en 1911.
+Segestriella a été placé en synonymie par Beatty en 1970.
 </t>
         </is>
       </c>
@@ -794,7 +814,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Audouin, 1826 : Explication sommaire des planches d'arachnides de l'Égypte et de la Syrie publiées par J. C. Savigny, membre de l'Institut; offrant un exposé des caractères naturels des genres avec la distinction des espèces. in Description de l'Égypte, ou Recueil des observations et des recherches qui ont été faites en Égypte pendant l'expédition de l'armée française. Histoire Naturelle, tome 1, partie 4, p. 99-186.</t>
         </is>
